--- a/salida/reportes_la_uno_valorizada.xlsx
+++ b/salida/reportes_la_uno_valorizada.xlsx
@@ -130,7 +130,7 @@
     <t>COMPAÑÍA</t>
   </si>
   <si>
-    <t>Feb 2019</t>
+    <t>Feb. 19</t>
   </si>
   <si>
     <t>201902</t>
